--- a/UK Learning Program_v1.10.xlsx
+++ b/UK Learning Program_v1.10.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8560DF59-FC38-4E4B-8B46-45095910A2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="23040" windowHeight="9645" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read-Me" sheetId="6" r:id="rId1"/>
@@ -19,17 +25,23 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FinalSheet!$A$1:$O$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HandsOnTracker!$A$2:$F$59</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="385">
   <si>
     <t>UK - QEA - Automation Engineering Upskill Program</t>
   </si>
@@ -1808,7 +1820,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2620,6 +2632,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2687,7 +2714,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2696,16 +2741,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2752,35 +2806,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2791,106 +2818,91 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3161,14 +3173,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3178,121 +3190,121 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="2.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.109375" customWidth="1"/>
     <col min="4" max="17" width="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="7" customWidth="1"/>
-    <col min="24" max="29" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="7.85546875" customWidth="1"/>
-    <col min="31" max="31" width="2.42578125" customWidth="1"/>
-    <col min="32" max="32" width="6.140625" customWidth="1"/>
+    <col min="24" max="29" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="7.88671875" customWidth="1"/>
+    <col min="31" max="31" width="2.44140625" customWidth="1"/>
+    <col min="32" max="32" width="6.109375" customWidth="1"/>
     <col min="33" max="33" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B1" s="98" t="s">
+    <row r="1" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="100"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="105"/>
       <c r="AH1" s="52"/>
       <c r="AI1" s="52"/>
       <c r="AJ1" s="52"/>
       <c r="AK1" s="52"/>
       <c r="AL1" s="52"/>
     </row>
-    <row r="2" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="104"/>
+    <row r="2" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="109"/>
       <c r="AH2" s="52"/>
       <c r="AI2" s="52"/>
       <c r="AJ2" s="52"/>
       <c r="AK2" s="52"/>
       <c r="AL2" s="52"/>
     </row>
-    <row r="3" spans="2:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106" t="s">
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106" t="s">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
@@ -3326,8 +3338,8 @@
       <c r="AK3" s="52"/>
       <c r="AL3" s="52"/>
     </row>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B4" s="91" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="14">
@@ -3381,8 +3393,8 @@
       <c r="AK4" s="52"/>
       <c r="AL4" s="52"/>
     </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="87"/>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B5" s="92"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -3436,8 +3448,8 @@
       <c r="AK5" s="52"/>
       <c r="AL5" s="52"/>
     </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B6" s="87"/>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B6" s="92"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -3489,8 +3501,8 @@
       <c r="AK6" s="52"/>
       <c r="AL6" s="52"/>
     </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="88"/>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B7" s="93"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -3560,7 +3572,7 @@
       <c r="AK7" s="52"/>
       <c r="AL7" s="52"/>
     </row>
-    <row r="8" spans="2:38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3599,457 +3611,457 @@
       <c r="AK8" s="52"/>
       <c r="AL8" s="52"/>
     </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B9" s="89" t="s">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B9" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="91"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
       <c r="Q9" s="52"/>
       <c r="R9" s="52"/>
-      <c r="S9" s="89" t="s">
+      <c r="S9" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="91"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="96"/>
       <c r="AH9" s="52"/>
       <c r="AI9" s="52"/>
       <c r="AJ9" s="52"/>
       <c r="AK9" s="52"/>
       <c r="AL9" s="52"/>
     </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="99"/>
       <c r="Q10" s="52"/>
       <c r="R10" s="52"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="94"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="99"/>
       <c r="AH10" s="52"/>
       <c r="AI10" s="52"/>
       <c r="AJ10" s="52"/>
       <c r="AK10" s="52"/>
       <c r="AL10" s="52"/>
     </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="99"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="85"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="85"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="85"/>
-    </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="90"/>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="99"/>
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="94"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="99"/>
       <c r="AH12" s="52"/>
       <c r="AI12" s="52"/>
       <c r="AJ12" s="52"/>
       <c r="AK12" s="52"/>
       <c r="AL12" s="52"/>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="99"/>
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="94"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="99"/>
       <c r="AH13" s="52"/>
       <c r="AI13" s="52"/>
       <c r="AJ13" s="52"/>
       <c r="AK13" s="52"/>
       <c r="AL13" s="52"/>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="99"/>
       <c r="Q14" s="52"/>
       <c r="R14" s="52"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="94"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="99"/>
       <c r="AH14" s="52"/>
       <c r="AI14" s="52"/>
       <c r="AJ14" s="52"/>
       <c r="AK14" s="52"/>
       <c r="AL14" s="52"/>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="99"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="94"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="99"/>
       <c r="AH15" s="52"/>
       <c r="AI15" s="52"/>
       <c r="AJ15" s="52"/>
       <c r="AK15" s="52"/>
       <c r="AL15" s="52"/>
     </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="99"/>
       <c r="Q16" s="52"/>
       <c r="R16" s="52"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="94"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="99"/>
       <c r="AH16" s="52"/>
       <c r="AI16" s="52"/>
       <c r="AJ16" s="52"/>
       <c r="AK16" s="52"/>
       <c r="AL16" s="52"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="99"/>
       <c r="Q17" s="52"/>
       <c r="R17" s="52"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="94"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="99"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="99"/>
       <c r="Q18" s="52"/>
       <c r="R18" s="52"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="94"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="99"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="99"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="94"/>
-    </row>
-    <row r="20" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="99"/>
+    </row>
+    <row r="20" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="102"/>
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="96"/>
-      <c r="AG20" s="97"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="101"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="101"/>
+      <c r="AF20" s="101"/>
+      <c r="AG20" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4071,7 +4083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4082,23 +4094,23 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="62.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="17.85546875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="52" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="76.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="5.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="62.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="17.88671875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="52" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="31.44140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="76.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -4145,21 +4157,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="116" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="115"/>
+      <c r="B2" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="110">
+      <c r="D2" s="115">
         <v>1</v>
       </c>
-      <c r="E2" s="110">
+      <c r="E2" s="115">
         <v>14</v>
       </c>
-      <c r="F2" s="110">
+      <c r="F2" s="115">
         <v>2</v>
       </c>
       <c r="G2" s="19" t="s">
@@ -4187,13 +4199,13 @@
       <c r="N2" s="19"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="115"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="8" t="s">
         <v>36</v>
       </c>
@@ -4204,23 +4216,23 @@
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
-      <c r="M3" s="130" t="s">
+      <c r="M3" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="130" t="s">
+      <c r="O3" s="112" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="115"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
       <c r="G4" s="19" t="s">
         <v>40</v>
       </c>
@@ -4238,17 +4250,17 @@
         <v>33</v>
       </c>
       <c r="L4" s="46"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="131"/>
-    </row>
-    <row r="5" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="113"/>
+    </row>
+    <row r="5" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="115"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="19" t="s">
         <v>294</v>
       </c>
@@ -4266,17 +4278,17 @@
         <v>33</v>
       </c>
       <c r="L5" s="46"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="131"/>
-    </row>
-    <row r="6" spans="1:15" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="113"/>
+    </row>
+    <row r="6" spans="1:15" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="115"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="56" t="s">
         <v>295</v>
       </c>
@@ -4294,17 +4306,17 @@
         <v>33</v>
       </c>
       <c r="L6" s="46"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="131"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="113"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="115"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="8" t="s">
         <v>41</v>
       </c>
@@ -4315,23 +4327,23 @@
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="131"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="126" t="s">
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="113"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="115"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="111">
+      <c r="D8" s="116">
         <v>2</v>
       </c>
-      <c r="E8" s="111">
+      <c r="E8" s="116">
         <v>20</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="116">
         <v>2</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -4355,15 +4367,15 @@
         <v>35</v>
       </c>
       <c r="N8" s="19"/>
-      <c r="O8" s="131"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
+      <c r="O8" s="113"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="115"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
       <c r="G9" s="8" t="s">
         <v>50</v>
       </c>
@@ -4380,15 +4392,15 @@
       <c r="N9" s="37">
         <v>1460588</v>
       </c>
-      <c r="O9" s="131"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
+      <c r="O9" s="113"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="115"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
       <c r="G10" s="19" t="s">
         <v>53</v>
       </c>
@@ -4410,15 +4422,15 @@
         <v>35</v>
       </c>
       <c r="N10" s="19"/>
-      <c r="O10" s="131"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
+      <c r="O10" s="113"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="115"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="8" t="s">
         <v>54</v>
       </c>
@@ -4435,15 +4447,15 @@
       <c r="N11" s="37">
         <v>1343662</v>
       </c>
-      <c r="O11" s="131"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
+      <c r="O11" s="113"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="115"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="19" t="s">
         <v>53</v>
       </c>
@@ -4465,15 +4477,15 @@
         <v>35</v>
       </c>
       <c r="N12" s="19"/>
-      <c r="O12" s="131"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
+      <c r="O12" s="113"/>
+    </row>
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="115"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="8" t="s">
         <v>56</v>
       </c>
@@ -4490,21 +4502,21 @@
       <c r="N13" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="132"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="115" t="s">
+      <c r="O13" s="114"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="115"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="110">
+      <c r="D14" s="115">
         <v>3</v>
       </c>
-      <c r="E14" s="110">
+      <c r="E14" s="115">
         <v>11</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="115">
         <v>1</v>
       </c>
       <c r="G14" s="19" t="s">
@@ -4525,17 +4537,17 @@
         <v>35</v>
       </c>
       <c r="N14" s="19"/>
-      <c r="O14" s="130" t="s">
+      <c r="O14" s="112" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
+    <row r="15" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="115"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
       <c r="G15" s="8" t="s">
         <v>43</v>
       </c>
@@ -4552,15 +4564,15 @@
       <c r="N15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="131"/>
-    </row>
-    <row r="16" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
+      <c r="O15" s="113"/>
+    </row>
+    <row r="16" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="115"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
       <c r="G16" s="19" t="s">
         <v>61</v>
       </c>
@@ -4582,15 +4594,15 @@
         <v>35</v>
       </c>
       <c r="N16" s="19"/>
-      <c r="O16" s="131"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
+      <c r="O16" s="113"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="115"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
       <c r="G17" s="8" t="s">
         <v>63</v>
       </c>
@@ -4607,15 +4619,15 @@
       <c r="N17" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="131"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
+      <c r="O17" s="113"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="115"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="8" t="s">
         <v>66</v>
       </c>
@@ -4632,15 +4644,15 @@
       <c r="N18" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="O18" s="131"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
+      <c r="O18" s="113"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="115"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
       <c r="G19" s="19" t="s">
         <v>69</v>
       </c>
@@ -4662,15 +4674,15 @@
         <v>35</v>
       </c>
       <c r="N19" s="19"/>
-      <c r="O19" s="131"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
+      <c r="O19" s="113"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="115"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
       <c r="G20" s="8" t="s">
         <v>70</v>
       </c>
@@ -4687,15 +4699,15 @@
       <c r="N20" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O20" s="131"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
+      <c r="O20" s="113"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="115"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
       <c r="G21" s="19" t="s">
         <v>73</v>
       </c>
@@ -4717,15 +4729,15 @@
         <v>35</v>
       </c>
       <c r="N21" s="19"/>
-      <c r="O21" s="131"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
+      <c r="O21" s="113"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="115"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
       <c r="G22" s="8" t="s">
         <v>343</v>
       </c>
@@ -4742,15 +4754,15 @@
       <c r="N22" s="26">
         <v>1645294</v>
       </c>
-      <c r="O22" s="131"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
+      <c r="O22" s="113"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="115"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
       <c r="G23" s="19" t="s">
         <v>300</v>
       </c>
@@ -4772,10 +4784,10 @@
         <v>35</v>
       </c>
       <c r="N23" s="19"/>
-      <c r="O23" s="132"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
+      <c r="O23" s="114"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="115"/>
       <c r="B24" s="30"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -4791,21 +4803,21 @@
       <c r="N24" s="31"/>
       <c r="O24" s="32"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="122" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="115"/>
+      <c r="B25" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="110">
+      <c r="D25" s="115">
         <v>1</v>
       </c>
-      <c r="E25" s="110">
+      <c r="E25" s="115">
         <v>14</v>
       </c>
-      <c r="F25" s="110">
+      <c r="F25" s="115">
         <v>2</v>
       </c>
       <c r="G25" s="19" t="s">
@@ -4824,13 +4836,13 @@
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="115"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
       <c r="G26" s="8" t="s">
         <v>78</v>
       </c>
@@ -4841,23 +4853,23 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="138" t="s">
+      <c r="M26" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="N26" s="133" t="s">
+      <c r="N26" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="O26" s="130" t="s">
+      <c r="O26" s="112" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="115"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="19" t="s">
         <v>83</v>
       </c>
@@ -4868,17 +4880,17 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="131"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="113"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="115"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
       <c r="G28" s="8" t="s">
         <v>84</v>
       </c>
@@ -4889,17 +4901,17 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="131"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="113"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="115"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
       <c r="G29" s="19" t="s">
         <v>85</v>
       </c>
@@ -4914,15 +4926,15 @@
         <v>35</v>
       </c>
       <c r="N29" s="19"/>
-      <c r="O29" s="131"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
+      <c r="O29" s="113"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="115"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
       <c r="G30" s="8" t="s">
         <v>86</v>
       </c>
@@ -4939,15 +4951,15 @@
       <c r="N30" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O30" s="131"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
+      <c r="O30" s="113"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="115"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
       <c r="G31" s="8" t="s">
         <v>89</v>
       </c>
@@ -4964,21 +4976,21 @@
       <c r="N31" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O31" s="131"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="125" t="s">
+      <c r="O31" s="113"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="115"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="110">
+      <c r="D32" s="115">
         <v>2</v>
       </c>
-      <c r="E32" s="110">
+      <c r="E32" s="115">
         <v>20</v>
       </c>
-      <c r="F32" s="110">
+      <c r="F32" s="115">
         <v>2</v>
       </c>
       <c r="G32" s="19" t="s">
@@ -4995,15 +5007,15 @@
         <v>35</v>
       </c>
       <c r="N32" s="19"/>
-      <c r="O32" s="131"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
-      <c r="B33" s="123"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
+      <c r="O32" s="113"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="115"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
       <c r="G33" s="8" t="s">
         <v>94</v>
       </c>
@@ -5020,15 +5032,15 @@
       <c r="N33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O33" s="131"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="110"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
+      <c r="O33" s="113"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="115"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
       <c r="G34" s="8" t="s">
         <v>97</v>
       </c>
@@ -5045,15 +5057,15 @@
       <c r="N34" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="O34" s="131"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="110"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
+      <c r="O34" s="113"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="115"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
       <c r="G35" s="8" t="s">
         <v>100</v>
       </c>
@@ -5070,15 +5082,15 @@
       <c r="N35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="O35" s="131"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
+      <c r="O35" s="113"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="115"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
       <c r="G36" s="8" t="s">
         <v>103</v>
       </c>
@@ -5095,15 +5107,15 @@
       <c r="N36" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="O36" s="131"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="110"/>
-      <c r="B37" s="123"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
+      <c r="O36" s="113"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="115"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
       <c r="G37" s="19" t="s">
         <v>106</v>
       </c>
@@ -5118,15 +5130,15 @@
         <v>35</v>
       </c>
       <c r="N37" s="19"/>
-      <c r="O37" s="131"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="110"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
+      <c r="O37" s="113"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="115"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
       <c r="G38" s="8" t="s">
         <v>107</v>
       </c>
@@ -5143,15 +5155,15 @@
       <c r="N38" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O38" s="131"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="110"/>
-      <c r="B39" s="123"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
+      <c r="O38" s="113"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="115"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
       <c r="G39" s="8" t="s">
         <v>110</v>
       </c>
@@ -5168,15 +5180,15 @@
       <c r="N39" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="O39" s="131"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="110"/>
-      <c r="B40" s="123"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
+      <c r="O39" s="113"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="115"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
       <c r="G40" s="8" t="s">
         <v>113</v>
       </c>
@@ -5193,15 +5205,15 @@
       <c r="N40" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="O40" s="131"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="123"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
+      <c r="O40" s="113"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="115"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
       <c r="G41" s="21" t="s">
         <v>115</v>
       </c>
@@ -5218,15 +5230,15 @@
       <c r="N41" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="O41" s="131"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="110"/>
-      <c r="B42" s="123"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
+      <c r="O41" s="113"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="115"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
       <c r="G42" s="19" t="s">
         <v>118</v>
       </c>
@@ -5241,15 +5253,15 @@
         <v>35</v>
       </c>
       <c r="N42" s="19"/>
-      <c r="O42" s="131"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="110"/>
-      <c r="B43" s="123"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
+      <c r="O42" s="113"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="115"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
       <c r="G43" s="21" t="s">
         <v>119</v>
       </c>
@@ -5266,15 +5278,15 @@
       <c r="N43" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="O43" s="131"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="110"/>
-      <c r="B44" s="123"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
+      <c r="O43" s="113"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="115"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
       <c r="G44" s="8" t="s">
         <v>122</v>
       </c>
@@ -5291,15 +5303,15 @@
       <c r="N44" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="O44" s="131"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="110"/>
-      <c r="B45" s="123"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
+      <c r="O44" s="113"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="115"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
       <c r="G45" s="21" t="s">
         <v>125</v>
       </c>
@@ -5316,15 +5328,15 @@
       <c r="N45" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O45" s="131"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="110"/>
-      <c r="B46" s="123"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
+      <c r="O45" s="113"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="115"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
       <c r="G46" s="21" t="s">
         <v>128</v>
       </c>
@@ -5341,15 +5353,15 @@
       <c r="N46" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="O46" s="131"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
-      <c r="B47" s="123"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
+      <c r="O46" s="113"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="115"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
       <c r="G47" s="8" t="s">
         <v>130</v>
       </c>
@@ -5366,15 +5378,15 @@
       <c r="N47" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="O47" s="131"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="110"/>
-      <c r="B48" s="123"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
+      <c r="O47" s="113"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="115"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
       <c r="G48" s="19" t="s">
         <v>132</v>
       </c>
@@ -5389,21 +5401,21 @@
         <v>35</v>
       </c>
       <c r="N48" s="19"/>
-      <c r="O48" s="132"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="110"/>
-      <c r="B49" s="123"/>
-      <c r="C49" s="117" t="s">
+      <c r="O48" s="114"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="115"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="111">
+      <c r="D49" s="116">
         <v>3</v>
       </c>
-      <c r="E49" s="111">
+      <c r="E49" s="116">
         <v>15</v>
       </c>
-      <c r="F49" s="111">
+      <c r="F49" s="116">
         <v>2</v>
       </c>
       <c r="G49" s="19" t="s">
@@ -5422,13 +5434,13 @@
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
-      <c r="B50" s="123"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="115"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
       <c r="G50" s="8" t="s">
         <v>342</v>
       </c>
@@ -5445,17 +5457,17 @@
       <c r="N50" s="26">
         <v>1248784</v>
       </c>
-      <c r="O50" s="130" t="s">
+      <c r="O50" s="112" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="110"/>
-      <c r="B51" s="123"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="115"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
       <c r="G51" s="19" t="s">
         <v>138</v>
       </c>
@@ -5470,15 +5482,15 @@
         <v>35</v>
       </c>
       <c r="N51" s="23"/>
-      <c r="O51" s="131"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="110"/>
-      <c r="B52" s="123"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
+      <c r="O51" s="113"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="115"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
       <c r="G52" s="22" t="s">
         <v>139</v>
       </c>
@@ -5489,21 +5501,21 @@
       <c r="J52" s="41"/>
       <c r="K52" s="41"/>
       <c r="L52" s="41"/>
-      <c r="M52" s="134" t="s">
+      <c r="M52" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="N52" s="137">
+      <c r="N52" s="127">
         <v>1132310</v>
       </c>
-      <c r="O52" s="131"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="110"/>
-      <c r="B53" s="123"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
+      <c r="O52" s="113"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="115"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
       <c r="G53" s="19" t="s">
         <v>132</v>
       </c>
@@ -5514,17 +5526,17 @@
       <c r="J53" s="42"/>
       <c r="K53" s="42"/>
       <c r="L53" s="42"/>
-      <c r="M53" s="135"/>
-      <c r="N53" s="137"/>
-      <c r="O53" s="131"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="110"/>
-      <c r="B54" s="123"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="M53" s="125"/>
+      <c r="N53" s="127"/>
+      <c r="O53" s="113"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="115"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
       <c r="G54" s="22" t="s">
         <v>139</v>
       </c>
@@ -5535,21 +5547,21 @@
       <c r="J54" s="43"/>
       <c r="K54" s="43"/>
       <c r="L54" s="43"/>
-      <c r="M54" s="136"/>
-      <c r="N54" s="137"/>
-      <c r="O54" s="131"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="110"/>
-      <c r="B55" s="123"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="111">
+      <c r="M54" s="126"/>
+      <c r="N54" s="127"/>
+      <c r="O54" s="113"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="115"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="116">
         <v>4</v>
       </c>
-      <c r="E55" s="111">
+      <c r="E55" s="116">
         <v>9</v>
       </c>
-      <c r="F55" s="111">
+      <c r="F55" s="116">
         <v>1</v>
       </c>
       <c r="G55" s="19" t="s">
@@ -5566,15 +5578,15 @@
         <v>35</v>
       </c>
       <c r="N55" s="19"/>
-      <c r="O55" s="131"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
-      <c r="B56" s="123"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
+      <c r="O55" s="113"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="115"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
       <c r="G56" s="8" t="s">
         <v>142</v>
       </c>
@@ -5585,21 +5597,21 @@
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
-      <c r="M56" s="129" t="s">
+      <c r="M56" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="N56" s="133">
+      <c r="N56" s="122">
         <v>1138374</v>
       </c>
-      <c r="O56" s="131"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="110"/>
-      <c r="B57" s="123"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
+      <c r="O56" s="113"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="115"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="117"/>
       <c r="G57" s="19" t="s">
         <v>132</v>
       </c>
@@ -5610,17 +5622,17 @@
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
-      <c r="M57" s="133"/>
-      <c r="N57" s="133"/>
-      <c r="O57" s="131"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
-      <c r="B58" s="123"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="112"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="112"/>
+      <c r="M57" s="122"/>
+      <c r="N57" s="122"/>
+      <c r="O57" s="113"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="115"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
       <c r="G58" s="8" t="s">
         <v>144</v>
       </c>
@@ -5631,17 +5643,17 @@
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
-      <c r="M58" s="133"/>
-      <c r="N58" s="133"/>
-      <c r="O58" s="131"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="110"/>
-      <c r="B59" s="124"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
+      <c r="M58" s="122"/>
+      <c r="N58" s="122"/>
+      <c r="O58" s="113"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="115"/>
+      <c r="B59" s="138"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
       <c r="G59" s="19" t="s">
         <v>132</v>
       </c>
@@ -5652,12 +5664,12 @@
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
-      <c r="M59" s="133"/>
-      <c r="N59" s="133"/>
-      <c r="O59" s="132"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="110"/>
+      <c r="M59" s="122"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="114"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="115"/>
       <c r="B60" s="27"/>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
@@ -5673,21 +5685,21 @@
       <c r="N60" s="28"/>
       <c r="O60" s="29"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="110"/>
-      <c r="B61" s="120" t="s">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="115"/>
+      <c r="B61" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="114" t="s">
+      <c r="C61" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="110">
+      <c r="D61" s="115">
         <v>1</v>
       </c>
-      <c r="E61" s="110">
+      <c r="E61" s="115">
         <v>7</v>
       </c>
-      <c r="F61" s="110">
+      <c r="F61" s="115">
         <v>1</v>
       </c>
       <c r="G61" s="19" t="s">
@@ -5706,13 +5718,13 @@
       <c r="N61" s="19"/>
       <c r="O61" s="19"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="110"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="110"/>
-      <c r="F62" s="110"/>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="115"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="115"/>
+      <c r="F62" s="115"/>
       <c r="G62" s="8" t="s">
         <v>148</v>
       </c>
@@ -5729,17 +5741,17 @@
       <c r="N62" s="26">
         <v>425576</v>
       </c>
-      <c r="O62" s="129" t="s">
+      <c r="O62" s="123" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="110"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="110"/>
-      <c r="E63" s="110"/>
-      <c r="F63" s="110"/>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="115"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="128"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
       <c r="G63" s="8" t="s">
         <v>150</v>
       </c>
@@ -5756,15 +5768,15 @@
       <c r="N63" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="O63" s="129"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="110"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110"/>
+      <c r="O63" s="123"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="115"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="128"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
       <c r="G64" s="8" t="s">
         <v>153</v>
       </c>
@@ -5781,19 +5793,19 @@
       <c r="N64" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="O64" s="129"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="110">
+      <c r="O64" s="123"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="115"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="128"/>
+      <c r="D65" s="115">
         <v>2</v>
       </c>
-      <c r="E65" s="110">
+      <c r="E65" s="115">
         <v>8</v>
       </c>
-      <c r="F65" s="110">
+      <c r="F65" s="115">
         <v>1</v>
       </c>
       <c r="G65" s="19" t="s">
@@ -5810,15 +5822,15 @@
         <v>35</v>
       </c>
       <c r="N65" s="19"/>
-      <c r="O65" s="129"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="110"/>
-      <c r="B66" s="121"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
+      <c r="O65" s="123"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="115"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="128"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
       <c r="G66" s="8" t="s">
         <v>157</v>
       </c>
@@ -5835,15 +5847,15 @@
       <c r="N66" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="O66" s="129"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="110"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="110"/>
-      <c r="F67" s="110"/>
+      <c r="O66" s="123"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="115"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="115"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="115"/>
       <c r="G67" s="8" t="s">
         <v>160</v>
       </c>
@@ -5860,15 +5872,15 @@
       <c r="N67" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="O67" s="129"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="110"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="110"/>
-      <c r="F68" s="110"/>
+      <c r="O67" s="123"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="115"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="115"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="115"/>
       <c r="G68" s="8" t="s">
         <v>163</v>
       </c>
@@ -5885,15 +5897,15 @@
       <c r="N68" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="O68" s="129"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="110"/>
-      <c r="B69" s="121"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
-      <c r="F69" s="110"/>
+      <c r="O68" s="123"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="115"/>
+      <c r="B69" s="135"/>
+      <c r="C69" s="128"/>
+      <c r="D69" s="115"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="115"/>
       <c r="G69" s="8" t="s">
         <v>166</v>
       </c>
@@ -5910,19 +5922,19 @@
       <c r="N69" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="O69" s="129"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
-      <c r="B70" s="121"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="110">
+      <c r="O69" s="123"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="115"/>
+      <c r="B70" s="135"/>
+      <c r="C70" s="128"/>
+      <c r="D70" s="115">
         <v>3</v>
       </c>
-      <c r="E70" s="110">
+      <c r="E70" s="115">
         <v>6</v>
       </c>
-      <c r="F70" s="110">
+      <c r="F70" s="115">
         <v>1</v>
       </c>
       <c r="G70" s="19" t="s">
@@ -5939,15 +5951,15 @@
         <v>35</v>
       </c>
       <c r="N70" s="19"/>
-      <c r="O70" s="129"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
-      <c r="B71" s="121"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="110"/>
-      <c r="E71" s="110"/>
-      <c r="F71" s="110"/>
+      <c r="O70" s="123"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="115"/>
+      <c r="B71" s="135"/>
+      <c r="C71" s="128"/>
+      <c r="D71" s="115"/>
+      <c r="E71" s="115"/>
+      <c r="F71" s="115"/>
       <c r="G71" s="8" t="s">
         <v>169</v>
       </c>
@@ -5964,11 +5976,49 @@
       <c r="N71" s="26">
         <v>1205346</v>
       </c>
-      <c r="O71" s="129"/>
+      <c r="O71" s="123"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="54">
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="F14:F23"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="F32:F48"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="A2:A71"/>
+    <mergeCell ref="C61:C71"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="B2:B23"/>
+    <mergeCell ref="C49:C59"/>
+    <mergeCell ref="B61:B71"/>
+    <mergeCell ref="B25:B59"/>
+    <mergeCell ref="C14:C23"/>
+    <mergeCell ref="C32:C48"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="O62:O71"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="E49:E54"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="O50:O59"/>
+    <mergeCell ref="M56:M59"/>
+    <mergeCell ref="N56:N59"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="N52:N54"/>
     <mergeCell ref="O3:O13"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D14:D23"/>
@@ -5985,44 +6035,6 @@
     <mergeCell ref="M3:M7"/>
     <mergeCell ref="M26:M28"/>
     <mergeCell ref="N26:N28"/>
-    <mergeCell ref="O50:O59"/>
-    <mergeCell ref="M56:M59"/>
-    <mergeCell ref="N56:N59"/>
-    <mergeCell ref="M52:M54"/>
-    <mergeCell ref="N52:N54"/>
-    <mergeCell ref="O62:O71"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D49:D54"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="E49:E54"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A2:A71"/>
-    <mergeCell ref="C61:C71"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="B2:B23"/>
-    <mergeCell ref="C49:C59"/>
-    <mergeCell ref="B61:B71"/>
-    <mergeCell ref="B25:B59"/>
-    <mergeCell ref="C14:C23"/>
-    <mergeCell ref="C32:C48"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="N3:N7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="F14:F23"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="F32:F48"/>
-    <mergeCell ref="F8:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6033,33 +6045,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1048564"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="80" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="79" customWidth="1"/>
-    <col min="5" max="5" width="72.85546875" style="80" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="80" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="80"/>
+    <col min="2" max="2" width="8.5546875" style="80" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="79" customWidth="1"/>
+    <col min="5" max="5" width="72.88671875" style="80" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="80" customWidth="1"/>
+    <col min="7" max="16384" width="10.88671875" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="139"/>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="146"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>172</v>
       </c>
@@ -6079,7 +6090,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="78">
         <v>1</v>
       </c>
@@ -6099,7 +6110,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="78">
         <v>2</v>
       </c>
@@ -6119,7 +6130,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="78">
         <v>3</v>
       </c>
@@ -6139,7 +6150,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="78">
         <v>4</v>
       </c>
@@ -6159,7 +6170,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="78">
         <v>5</v>
       </c>
@@ -6179,7 +6190,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="78">
         <v>6</v>
       </c>
@@ -6199,7 +6210,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="78">
         <v>7</v>
       </c>
@@ -6217,7 +6228,7 @@
       </c>
       <c r="F9" s="59"/>
     </row>
-    <row r="10" spans="1:6" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="78">
         <v>8</v>
       </c>
@@ -6237,7 +6248,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="78">
         <v>9</v>
       </c>
@@ -6257,7 +6268,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="78">
         <v>10</v>
       </c>
@@ -6277,7 +6288,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="78">
         <v>11</v>
       </c>
@@ -6297,7 +6308,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="78">
         <v>12</v>
       </c>
@@ -6315,7 +6326,7 @@
       </c>
       <c r="F14" s="59"/>
     </row>
-    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="78">
         <v>13</v>
       </c>
@@ -6333,7 +6344,7 @@
       </c>
       <c r="F15" s="59"/>
     </row>
-    <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="78">
         <v>14</v>
       </c>
@@ -6351,7 +6362,7 @@
       </c>
       <c r="F16" s="59"/>
     </row>
-    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="78">
         <v>15</v>
       </c>
@@ -6369,7 +6380,7 @@
       </c>
       <c r="F17" s="59"/>
     </row>
-    <row r="18" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="78">
         <v>16</v>
       </c>
@@ -6389,7 +6400,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="78">
         <v>17</v>
       </c>
@@ -6409,7 +6420,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="78">
         <v>18</v>
       </c>
@@ -6429,7 +6440,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="78">
         <v>19</v>
       </c>
@@ -6449,7 +6460,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="78">
         <v>20</v>
       </c>
@@ -6469,7 +6480,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="78">
         <v>21</v>
       </c>
@@ -6489,7 +6500,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="78">
         <v>22</v>
       </c>
@@ -6509,7 +6520,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="81">
         <v>23</v>
       </c>
@@ -6529,7 +6540,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="81">
         <v>24</v>
       </c>
@@ -6549,7 +6560,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="81">
         <v>25</v>
       </c>
@@ -6569,7 +6580,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="81">
         <v>26</v>
       </c>
@@ -6589,7 +6600,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A29" s="81">
         <v>27</v>
       </c>
@@ -6607,7 +6618,7 @@
       </c>
       <c r="F29" s="78"/>
     </row>
-    <row r="30" spans="1:6" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="81">
         <v>28</v>
       </c>
@@ -6627,7 +6638,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="81">
         <v>29</v>
       </c>
@@ -6647,7 +6658,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="81">
         <v>30</v>
       </c>
@@ -6667,7 +6678,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="81">
         <v>31</v>
       </c>
@@ -6683,9 +6694,11 @@
       <c r="E33" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="F33" s="78"/>
-    </row>
-    <row r="34" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="F33" s="78" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="81">
         <v>32</v>
       </c>
@@ -6703,7 +6716,7 @@
       </c>
       <c r="F34" s="78"/>
     </row>
-    <row r="35" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A35" s="81">
         <v>33</v>
       </c>
@@ -6723,7 +6736,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A36" s="81">
         <v>35</v>
       </c>
@@ -6741,7 +6754,7 @@
       </c>
       <c r="F36" s="78"/>
     </row>
-    <row r="37" spans="1:6" ht="156" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A37" s="81">
         <v>36</v>
       </c>
@@ -6759,7 +6772,7 @@
       </c>
       <c r="F37" s="78"/>
     </row>
-    <row r="38" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A38" s="81">
         <v>37</v>
       </c>
@@ -6777,7 +6790,7 @@
       </c>
       <c r="F38" s="78"/>
     </row>
-    <row r="39" spans="1:6" ht="168" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="156" x14ac:dyDescent="0.3">
       <c r="A39" s="81">
         <v>38</v>
       </c>
@@ -6797,7 +6810,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="108" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="108" x14ac:dyDescent="0.3">
       <c r="A40" s="81">
         <v>39</v>
       </c>
@@ -6817,7 +6830,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="132" x14ac:dyDescent="0.3">
       <c r="A41" s="81">
         <v>40</v>
       </c>
@@ -6837,7 +6850,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A42" s="81">
         <v>41</v>
       </c>
@@ -6857,7 +6870,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="132" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.3">
       <c r="A43" s="81">
         <v>34</v>
       </c>
@@ -6875,7 +6888,7 @@
       </c>
       <c r="F43" s="78"/>
     </row>
-    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A44" s="81">
         <v>42</v>
       </c>
@@ -6893,7 +6906,7 @@
       </c>
       <c r="F44" s="78"/>
     </row>
-    <row r="45" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A45" s="81">
         <v>43</v>
       </c>
@@ -6911,7 +6924,7 @@
       </c>
       <c r="F45" s="78"/>
     </row>
-    <row r="46" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="81">
         <v>44</v>
       </c>
@@ -6929,7 +6942,7 @@
       </c>
       <c r="F46" s="78"/>
     </row>
-    <row r="47" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="81">
         <v>45</v>
       </c>
@@ -6947,7 +6960,7 @@
       </c>
       <c r="F47" s="78"/>
     </row>
-    <row r="48" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="81">
         <v>46</v>
       </c>
@@ -6965,7 +6978,7 @@
       </c>
       <c r="F48" s="78"/>
     </row>
-    <row r="49" spans="1:6" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="112.2" x14ac:dyDescent="0.3">
       <c r="A49" s="81">
         <v>47</v>
       </c>
@@ -6983,7 +6996,7 @@
       </c>
       <c r="F49" s="78"/>
     </row>
-    <row r="50" spans="1:6" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="81">
         <v>48</v>
       </c>
@@ -7003,7 +7016,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="81">
         <v>49</v>
       </c>
@@ -7021,7 +7034,7 @@
       </c>
       <c r="F51" s="78"/>
     </row>
-    <row r="52" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="81">
         <v>50</v>
       </c>
@@ -7039,7 +7052,7 @@
       </c>
       <c r="F52" s="78"/>
     </row>
-    <row r="53" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A53" s="81">
         <v>51</v>
       </c>
@@ -7057,7 +7070,7 @@
       </c>
       <c r="F53" s="78"/>
     </row>
-    <row r="54" spans="1:6" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A54" s="81">
         <v>52</v>
       </c>
@@ -7075,7 +7088,7 @@
       </c>
       <c r="F54" s="78"/>
     </row>
-    <row r="55" spans="1:6" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="81">
         <v>53</v>
       </c>
@@ -7095,7 +7108,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A56" s="81">
         <v>54</v>
       </c>
@@ -7115,7 +7128,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A57" s="81">
         <v>55</v>
       </c>
@@ -7135,7 +7148,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="81">
         <v>56</v>
       </c>
@@ -7153,7 +7166,7 @@
       </c>
       <c r="F58" s="78"/>
     </row>
-    <row r="59" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A59" s="81">
         <v>57</v>
       </c>
@@ -7171,42 +7184,38 @@
       </c>
       <c r="F59" s="78"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F61" s="80">
         <f>COUNTIF(F3:F59,"done")</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F62" s="80">
         <f>COUNTIF(F3:F59,"try")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E63" s="80" t="s">
         <v>372</v>
       </c>
       <c r="F63" s="84">
         <f>F61/A59</f>
-        <v>0.57894736842105265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.59649122807017541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F64" s="84">
         <f>(F61+F62)/A59</f>
-        <v>0.57894736842105265</v>
-      </c>
-    </row>
-    <row r="1048564" spans="3:3" x14ac:dyDescent="0.25">
+        <v>0.59649122807017541</v>
+      </c>
+    </row>
+    <row r="1048564" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1048564" s="75"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F59">
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:F59" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
@@ -7219,25 +7228,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>216</v>
       </c>
@@ -7250,7 +7259,7 @@
       <c r="D1" s="52"/>
       <c r="F1" s="52"/>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>219</v>
       </c>
@@ -7263,7 +7272,7 @@
       <c r="D2" s="52"/>
       <c r="F2" s="52"/>
     </row>
-    <row r="3" spans="1:6" s="52" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>222</v>
       </c>
@@ -7274,7 +7283,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>222</v>
       </c>
@@ -7287,7 +7296,7 @@
       <c r="D4" s="52"/>
       <c r="F4" s="52"/>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -7300,7 +7309,7 @@
       <c r="D5" s="52"/>
       <c r="F5" s="52"/>
     </row>
-    <row r="6" spans="1:6" ht="17.100000000000001" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -7313,7 +7322,7 @@
       <c r="D6" s="52"/>
       <c r="F6" s="52"/>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>231</v>
       </c>
@@ -7326,7 +7335,7 @@
       <c r="D7" s="52"/>
       <c r="F7" s="52"/>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>234</v>
       </c>
@@ -7339,7 +7348,7 @@
       <c r="D8" s="52"/>
       <c r="F8" s="52"/>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>237</v>
       </c>
@@ -7359,168 +7368,173 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="53">
         <v>254574</v>
       </c>
       <c r="B11" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="152" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="144">
+      <c r="D11" s="147">
         <v>7466389865</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="F11" s="147" t="s">
+      <c r="F11" s="150" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="53">
         <v>264429</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="147"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="153"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="150"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="53">
         <v>657790</v>
       </c>
       <c r="B13" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="152" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="144">
+      <c r="D13" s="147">
         <v>7440030102</v>
       </c>
-      <c r="E13" s="148" t="s">
+      <c r="E13" s="151" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="147" t="s">
+      <c r="F13" s="150" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="53">
         <v>742455</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="147"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="153"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="150"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="53">
         <v>320896</v>
       </c>
       <c r="B15" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="152" t="s">
         <v>246</v>
       </c>
-      <c r="D15" s="144">
+      <c r="D15" s="147">
         <v>7438354098</v>
       </c>
-      <c r="E15" s="148" t="s">
+      <c r="E15" s="151" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="147" t="s">
+      <c r="F15" s="150" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="53">
         <v>317486</v>
       </c>
       <c r="B16" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="147"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="153"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="150"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="53">
         <v>213008</v>
       </c>
       <c r="B17" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="152" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="144">
+      <c r="D17" s="147">
         <v>7448680289</v>
       </c>
-      <c r="E17" s="148" t="s">
+      <c r="E17" s="151" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="147" t="s">
+      <c r="F17" s="150" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="53">
         <v>251078</v>
       </c>
       <c r="B18" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="147"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="153"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="150"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="53">
         <v>539249</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="152" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="144">
+      <c r="D19" s="147">
         <v>7405593477</v>
       </c>
-      <c r="E19" s="148" t="s">
+      <c r="E19" s="151" t="s">
         <v>251</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="F19" s="149" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="53">
         <v>305242</v>
       </c>
       <c r="B20" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="146"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="D13:D14"/>
@@ -7536,11 +7550,6 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7551,22 +7560,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="52"/>
-    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="52"/>
+    <col min="2" max="2" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -7580,7 +7589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
@@ -7594,7 +7603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>8</v>
       </c>
@@ -7608,7 +7617,7 @@
         <v>1460588</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>8</v>
       </c>
@@ -7622,7 +7631,7 @@
         <v>1343662</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>8</v>
       </c>
@@ -7636,7 +7645,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>8</v>
       </c>
@@ -7650,7 +7659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>8</v>
       </c>
@@ -7664,7 +7673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>8</v>
       </c>
@@ -7678,7 +7687,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>8</v>
       </c>
@@ -7692,7 +7701,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>8</v>
       </c>
@@ -7706,7 +7715,7 @@
         <v>1645294</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
         <v>9</v>
       </c>
@@ -7720,7 +7729,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
         <v>9</v>
       </c>
@@ -7734,7 +7743,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="65" t="s">
         <v>9</v>
       </c>
@@ -7748,7 +7757,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="65" t="s">
         <v>9</v>
       </c>
@@ -7762,7 +7771,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
         <v>9</v>
       </c>
@@ -7776,7 +7785,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="s">
         <v>9</v>
       </c>
@@ -7790,7 +7799,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="65" t="s">
         <v>9</v>
       </c>
@@ -7804,7 +7813,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="65" t="s">
         <v>9</v>
       </c>
@@ -7818,7 +7827,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="s">
         <v>9</v>
       </c>
@@ -7832,7 +7841,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="65" t="s">
         <v>9</v>
       </c>
@@ -7846,7 +7855,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="65" t="s">
         <v>9</v>
       </c>
@@ -7860,7 +7869,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="65" t="s">
         <v>9</v>
       </c>
@@ -7874,7 +7883,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
         <v>9</v>
       </c>
@@ -7888,7 +7897,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="65" t="s">
         <v>9</v>
       </c>
@@ -7902,7 +7911,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>9</v>
       </c>
@@ -7916,7 +7925,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="s">
         <v>9</v>
       </c>
@@ -7930,7 +7939,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
         <v>9</v>
       </c>
@@ -7944,7 +7953,7 @@
         <v>1645294</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="s">
         <v>9</v>
       </c>
@@ -7958,7 +7967,7 @@
         <v>1132310</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="s">
         <v>9</v>
       </c>
@@ -7972,7 +7981,7 @@
         <v>1138374</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="69" t="s">
         <v>10</v>
       </c>
@@ -7986,7 +7995,7 @@
         <v>425576</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="69" t="s">
         <v>10</v>
       </c>
@@ -8000,7 +8009,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="69" t="s">
         <v>10</v>
       </c>
@@ -8014,7 +8023,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="69" t="s">
         <v>10</v>
       </c>
@@ -8028,7 +8037,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="69" t="s">
         <v>10</v>
       </c>
@@ -8042,7 +8051,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="69" t="s">
         <v>10</v>
       </c>
@@ -8056,7 +8065,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="69" t="s">
         <v>10</v>
       </c>
@@ -8070,7 +8079,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="69" t="s">
         <v>10</v>
       </c>
@@ -8094,7 +8103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8102,19 +8111,19 @@
       <selection pane="bottomLeft" activeCell="C42" sqref="C42:C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1"/>
-    <col min="2" max="2" width="19.140625" style="3"/>
-    <col min="3" max="3" width="54.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="3"/>
-    <col min="5" max="5" width="60.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="3" customWidth="1"/>
-    <col min="7" max="10" width="19.140625" style="3"/>
-    <col min="11" max="16384" width="19.140625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1"/>
+    <col min="2" max="2" width="19.109375" style="3"/>
+    <col min="3" max="3" width="54.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="3"/>
+    <col min="5" max="5" width="60.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="3" customWidth="1"/>
+    <col min="7" max="10" width="19.109375" style="3"/>
+    <col min="11" max="16384" width="19.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8146,11 +8155,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="154" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="154">
+      <c r="B2" s="158">
         <v>1</v>
       </c>
       <c r="C2" s="48" t="s">
@@ -8170,9 +8179,9 @@
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
     </row>
-    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="165"/>
-      <c r="B3" s="154"/>
+    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="154"/>
+      <c r="B3" s="158"/>
       <c r="C3" s="48" t="s">
         <v>259</v>
       </c>
@@ -8190,9 +8199,9 @@
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="154"/>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="154"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="48" t="s">
         <v>262</v>
       </c>
@@ -8210,472 +8219,472 @@
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="154">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="154"/>
+      <c r="B5" s="158">
         <v>2</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="159" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="152">
+      <c r="D5" s="160">
         <v>1</v>
       </c>
-      <c r="E5" s="168" t="s">
+      <c r="E5" s="161" t="s">
         <v>266</v>
       </c>
-      <c r="F5" s="155" t="s">
+      <c r="F5" s="170" t="s">
         <v>267</v>
       </c>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-    </row>
-    <row r="7" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="165"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="165"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="153" t="s">
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="154"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+    </row>
+    <row r="7" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="154"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="154"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="159" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="152">
+      <c r="D8" s="160">
         <v>2</v>
       </c>
-      <c r="E8" s="129" t="s">
+      <c r="E8" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="123" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="165"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="165"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="165"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="153" t="s">
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="154"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="154"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="154"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="D11" s="152">
+      <c r="D11" s="160">
         <v>3</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="123" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="129" t="s">
+      <c r="F11" s="123" t="s">
         <v>272</v>
       </c>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="165"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-    </row>
-    <row r="13" spans="1:10" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="165"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-    </row>
-    <row r="14" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="165"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="153" t="s">
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="154"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="173"/>
+    </row>
+    <row r="13" spans="1:10" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="154"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+    </row>
+    <row r="14" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="154"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="159" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="152">
+      <c r="D14" s="160">
         <v>4</v>
       </c>
-      <c r="E14" s="129" t="s">
+      <c r="E14" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="123" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-    </row>
-    <row r="15" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
-      <c r="B17" s="154">
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+    </row>
+    <row r="15" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="154"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="154"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="154"/>
+      <c r="B17" s="158">
         <v>3</v>
       </c>
-      <c r="C17" s="153" t="s">
+      <c r="C17" s="159" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="154">
+      <c r="D17" s="158">
         <v>1</v>
       </c>
-      <c r="E17" s="129" t="s">
+      <c r="E17" s="123" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="129" t="s">
+      <c r="F17" s="123" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="165"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="165"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="152"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-    </row>
-    <row r="23" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="165"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-    </row>
-    <row r="24" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="165"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="153" t="s">
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="154"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="154"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="154"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="154"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="154"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
+    </row>
+    <row r="23" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="154"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
+    </row>
+    <row r="24" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="154"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="159" t="s">
         <v>276</v>
       </c>
-      <c r="D24" s="154">
+      <c r="D24" s="158">
         <v>2</v>
       </c>
-      <c r="E24" s="129" t="s">
+      <c r="E24" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="123" t="s">
         <v>275</v>
       </c>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="165"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="165"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-    </row>
-    <row r="27" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="165"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="153" t="s">
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="154"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="173"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="154"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
+    </row>
+    <row r="27" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="154"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="159" t="s">
         <v>277</v>
       </c>
-      <c r="D27" s="154">
+      <c r="D27" s="158">
         <v>3</v>
       </c>
-      <c r="E27" s="129" t="s">
+      <c r="E27" s="123" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="129" t="s">
+      <c r="F27" s="123" t="s">
         <v>279</v>
       </c>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-    </row>
-    <row r="28" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="165"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="165"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+    </row>
+    <row r="28" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="154"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="154"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
       <c r="G29" s="49"/>
       <c r="H29" s="49"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
     </row>
-    <row r="30" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="165"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
+    <row r="30" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="154"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
     </row>
-    <row r="31" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="165"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
+    <row r="31" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="154"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="165"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="153" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="154"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="159" t="s">
         <v>280</v>
       </c>
-      <c r="D32" s="154">
+      <c r="D32" s="158">
         <v>4</v>
       </c>
-      <c r="E32" s="129" t="s">
+      <c r="E32" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="F32" s="129" t="s">
+      <c r="F32" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="165"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="165"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="166" t="s">
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="154"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="173"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="154"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="155" t="s">
         <v>281</v>
       </c>
-      <c r="B35" s="158">
+      <c r="B35" s="163">
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="166"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="161" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="155"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="D36" s="164">
+      <c r="D36" s="169">
         <v>1</v>
       </c>
-      <c r="E36" s="167" t="s">
+      <c r="E36" s="156" t="s">
         <v>284</v>
       </c>
-      <c r="F36" s="156" t="s">
+      <c r="F36" s="157" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="166"/>
-      <c r="B37" s="159"/>
-      <c r="C37" s="162"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="156"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="166"/>
-      <c r="B38" s="159"/>
+    <row r="37" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="155"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="157"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="155"/>
+      <c r="B38" s="164"/>
       <c r="C38" s="2" t="s">
         <v>286</v>
       </c>
@@ -8683,33 +8692,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="166"/>
-      <c r="B39" s="159"/>
-      <c r="C39" s="161" t="s">
+    <row r="39" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="155"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="166" t="s">
         <v>287</v>
       </c>
-      <c r="D39" s="164">
+      <c r="D39" s="169">
         <v>3</v>
       </c>
-      <c r="E39" s="156" t="s">
+      <c r="E39" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="F39" s="157" t="s">
+      <c r="F39" s="162" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="166"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="164"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="157"/>
-    </row>
-    <row r="41" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="166"/>
-      <c r="B41" s="159"/>
+    <row r="40" spans="1:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="155"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="169"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="162"/>
+    </row>
+    <row r="41" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="155"/>
+      <c r="B41" s="164"/>
       <c r="C41" s="5" t="s">
         <v>290</v>
       </c>
@@ -8717,40 +8726,106 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="166"/>
-      <c r="B42" s="159"/>
-      <c r="C42" s="161" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="155"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="166" t="s">
         <v>291</v>
       </c>
-      <c r="D42" s="164">
+      <c r="D42" s="169">
         <v>5</v>
       </c>
-      <c r="E42" s="156" t="s">
+      <c r="E42" s="157" t="s">
         <v>292</v>
       </c>
-      <c r="F42" s="156" t="s">
+      <c r="F42" s="157" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="166"/>
-      <c r="B43" s="159"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="164"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-    </row>
-    <row r="44" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="166"/>
-      <c r="B44" s="160"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
+    <row r="43" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="155"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+    </row>
+    <row r="44" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="155"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D42:D44"/>
     <mergeCell ref="A2:A34"/>
     <mergeCell ref="A35:A44"/>
     <mergeCell ref="E36:E37"/>
@@ -8767,72 +8842,6 @@
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B17:B34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="J17:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8843,134 +8852,134 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="G10:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="7:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="171" t="s">
+    <row r="10" spans="7:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="87" t="s">
         <v>373</v>
       </c>
-      <c r="H10" s="171" t="s">
+      <c r="H10" s="87" t="s">
         <v>373</v>
       </c>
-      <c r="I10" s="171" t="s">
+      <c r="I10" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="J10" s="171" t="s">
+      <c r="J10" s="87" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="169" t="s">
+    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="85" t="s">
         <v>376</v>
       </c>
-      <c r="H11" s="169">
+      <c r="H11" s="85">
         <v>17</v>
       </c>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169">
+      <c r="I11" s="85"/>
+      <c r="J11" s="85">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="169" t="s">
+    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="85" t="s">
         <v>377</v>
       </c>
-      <c r="H12" s="169">
+      <c r="H12" s="85">
         <v>1.5</v>
       </c>
-      <c r="I12" s="169">
+      <c r="I12" s="85">
         <v>3</v>
       </c>
-      <c r="J12" s="169">
+      <c r="J12" s="85">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="7:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="G13" s="169" t="s">
+    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="85" t="s">
         <v>378</v>
       </c>
-      <c r="H13" s="169">
+      <c r="H13" s="85">
         <v>6.5</v>
       </c>
-      <c r="I13" s="169">
+      <c r="I13" s="85">
         <v>3</v>
       </c>
-      <c r="J13" s="169">
+      <c r="J13" s="85">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="169" t="s">
+    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="85" t="s">
         <v>379</v>
       </c>
-      <c r="H14" s="169">
+      <c r="H14" s="85">
         <v>4</v>
       </c>
-      <c r="I14" s="169">
+      <c r="I14" s="85">
         <v>1</v>
       </c>
-      <c r="J14" s="169"/>
-    </row>
-    <row r="15" spans="7:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="G15" s="169" t="s">
+      <c r="J14" s="85"/>
+    </row>
+    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="85" t="s">
         <v>380</v>
       </c>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169">
+      <c r="H15" s="85"/>
+      <c r="I15" s="85">
         <v>5</v>
       </c>
-      <c r="J15" s="169"/>
-    </row>
-    <row r="16" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="169" t="s">
+      <c r="J15" s="85"/>
+    </row>
+    <row r="16" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G16" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="H16" s="169">
+      <c r="H16" s="85">
         <v>2</v>
       </c>
-      <c r="I16" s="169">
+      <c r="I16" s="85">
         <v>3</v>
       </c>
-      <c r="J16" s="169"/>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="169" t="s">
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G17" s="85" t="s">
         <v>382</v>
       </c>
-      <c r="H17" s="169">
+      <c r="H17" s="85">
         <v>3</v>
       </c>
-      <c r="I17" s="169">
+      <c r="I17" s="85">
         <v>2</v>
       </c>
-      <c r="J17" s="169"/>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="170" t="s">
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G18" s="86" t="s">
         <v>383</v>
       </c>
-      <c r="H18" s="172">
+      <c r="H18" s="88">
         <f>SUM(H11:H17)/57</f>
         <v>0.59649122807017541</v>
       </c>
-      <c r="I18" s="172">
+      <c r="I18" s="88">
         <f>SUM(I11:I17)/57</f>
         <v>0.2982456140350877</v>
       </c>
-      <c r="J18" s="173">
+      <c r="J18" s="89">
         <v>0.1</v>
       </c>
     </row>
